--- a/out/CBP/Øko_konventionelt køb i kg Nordsjælands hospitaler januar 2024.xlsx
+++ b/out/CBP/Øko_konventionelt køb i kg Nordsjælands hospitaler januar 2024.xlsx
@@ -14,21 +14,17 @@
   </bookViews>
   <sheets>
     <sheet name="Øko_konventionelt køb i kg Nord" sheetId="1" r:id="rId1"/>
+    <sheet name="FirstPass" sheetId="2" r:id="rId5"/>
+    <sheet name="SecondPass" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="1" fullPrecision="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">Sygehus lillebælt   Periode 01-01-2024 - 31-01-2024</t>
-  </si>
-  <si>
-    <t>4% filler,47% containsProductNr,47% containsAmount,</t>
-  </si>
-  <si>
-    <t>9% filler,90% NrHeader,</t>
   </si>
   <si>
     <t xml:space="preserve">Faktura Nr </t>
@@ -63,139 +59,160 @@
     <t xml:space="preserve">Mængde kg </t>
   </si>
   <si>
+    <t>620308</t>
+  </si>
+  <si>
+    <t>20125</t>
+  </si>
+  <si>
+    <t>Nej</t>
+  </si>
+  <si>
+    <t>20125 ~ Lys Brødmalt 12,5 kg (60)</t>
+  </si>
+  <si>
+    <t>620308 ~ Nordsjællands Hospital</t>
+  </si>
+  <si>
+    <t>26327</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>26327 ~ Øko Fint Ølandshvedemel 12,5kg</t>
+  </si>
+  <si>
+    <t>26328</t>
+  </si>
+  <si>
+    <t>26328 ~ Øko Svedje Rugmel 12,5 kg</t>
+  </si>
+  <si>
+    <t>33760</t>
+  </si>
+  <si>
+    <t>33760 ~ Hvedegluten 25kg</t>
+  </si>
+  <si>
+    <t>36018</t>
+  </si>
+  <si>
+    <t>36018 ~ Kronjäst orig. gær 12x1 kg</t>
+  </si>
+  <si>
+    <t>40420</t>
+  </si>
+  <si>
+    <t>40420 ~ Ireks Hvedesur 12,5 kg. (60)</t>
+  </si>
+  <si>
+    <t>40439</t>
+  </si>
+  <si>
+    <t>40439 ~ Ireks Green Spelt 12,5 kg</t>
+  </si>
+  <si>
+    <t>40566</t>
+  </si>
+  <si>
+    <t>40566 ~ Ireks Fuldkornsrugsur12,5k(54)</t>
+  </si>
+  <si>
+    <t>5065</t>
+  </si>
+  <si>
+    <t>5065 ~ Øko Rugflager 10 kg</t>
+  </si>
+  <si>
+    <t>46606</t>
+  </si>
+  <si>
+    <t>46606 ~ Suppebæger 450ml/16oz 500 stk</t>
+  </si>
+  <si>
+    <t>46607</t>
+  </si>
+  <si>
+    <t>46607 ~ Låg til suppebæger 500 stk</t>
+  </si>
+  <si>
+    <t>82685</t>
+  </si>
+  <si>
+    <t>82685 ~ 1/2 Palle</t>
+  </si>
+  <si>
+    <t>949789</t>
+  </si>
+  <si>
+    <t>949789 ~ Credifrost® Super 12,5 kg</t>
+  </si>
+  <si>
+    <t>99100</t>
+  </si>
+  <si>
+    <t>99100 ~ Olietillæg</t>
+  </si>
+  <si>
+    <t>4% filler,47% containsProductNr,47% containsAmount,</t>
+  </si>
+  <si>
+    <t>9% filler,90% NrHeader,</t>
+  </si>
+  <si>
     <t>4% filler,47% productNameHeader,47% NrHeader,</t>
   </si>
   <si>
-    <t>620308</t>
-  </si>
-  <si>
-    <t>20125</t>
-  </si>
-  <si>
-    <t>Nej</t>
-  </si>
-  <si>
-    <t>20125 ~ Lys Brødmalt 12,5 kg (60)</t>
-  </si>
-  <si>
-    <t>620308 ~ Nordsjællands Hospital</t>
-  </si>
-  <si>
     <t>9% filler,90% QuantityHeader,</t>
   </si>
   <si>
-    <t>26327</t>
-  </si>
-  <si>
-    <t>Ja</t>
-  </si>
-  <si>
-    <t>26327 ~ Øko Fint Ølandshvedemel 12,5kg</t>
-  </si>
-  <si>
     <t>3% filler,32% SingleMassHeader,32% TotalMassHeader,32% QuantityHeader,</t>
   </si>
   <si>
-    <t>26328</t>
-  </si>
-  <si>
-    <t>26328 ~ Øko Svedje Rugmel 12,5 kg</t>
-  </si>
-  <si>
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>33760</t>
-  </si>
-  <si>
-    <t>33760 ~ Hvedegluten 25kg</t>
-  </si>
-  <si>
     <t>1% filler,15% containsTotalMass,15% containsSingleMass,15% containsProduct,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,</t>
   </si>
   <si>
-    <t>36018</t>
-  </si>
-  <si>
-    <t>36018 ~ Kronjäst orig. gær 12x1 kg</t>
-  </si>
-  <si>
     <t>6% filler,31% containsProductNr,62% containsAmount,</t>
   </si>
   <si>
-    <t>40420</t>
-  </si>
-  <si>
-    <t>40420 ~ Ireks Hvedesur 12,5 kg. (60)</t>
-  </si>
-  <si>
     <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
   </si>
   <si>
-    <t>40439</t>
-  </si>
-  <si>
-    <t>40439 ~ Ireks Green Spelt 12,5 kg</t>
-  </si>
-  <si>
     <t>2% filler,21% containsSingleMass,21% containsProduct,10% containsProductNr,21% containsAmount,21% SingleMassHeader,</t>
   </si>
   <si>
-    <t>40566</t>
-  </si>
-  <si>
-    <t>40566 ~ Ireks Fuldkornsrugsur12,5k(54)</t>
-  </si>
-  <si>
     <t>1% filler,17% containsProduct,8% containsProductNr,17% containsAmount,17% SingleMassHeader,17% TotalMassHeader,17% QuantityHeader,</t>
   </si>
   <si>
-    <t>5065</t>
-  </si>
-  <si>
-    <t>5065 ~ Øko Rugflager 10 kg</t>
-  </si>
-  <si>
     <t>1% filler,17% containsTotalMass,17% containsSingleMass,8% containsProductNr,17% containsAmount,17% SingleMassHeader,17% TotalMassHeader,</t>
   </si>
   <si>
     <t>2% filler,27% containsSingleMass,13% containsProductNr,27% containsAmount,27% SingleMassHeader,</t>
   </si>
   <si>
-    <t>46606</t>
-  </si>
-  <si>
-    <t>46606 ~ Suppebæger 450ml/16oz 500 stk</t>
-  </si>
-  <si>
     <t>3% filler,38% containsProduct,19% containsProductNr,38% containsAmount,</t>
   </si>
   <si>
-    <t>46607</t>
-  </si>
-  <si>
-    <t>46607 ~ Låg til suppebæger 500 stk</t>
-  </si>
-  <si>
     <t>3% filler,19% containsProductNr,38% containsAmount,38% QuantityHeader,</t>
   </si>
   <si>
-    <t>82685</t>
-  </si>
-  <si>
-    <t>82685 ~ 1/2 Palle</t>
-  </si>
-  <si>
-    <t>949789</t>
-  </si>
-  <si>
-    <t>949789 ~ Credifrost® Super 12,5 kg</t>
-  </si>
-  <si>
-    <t>99100</t>
-  </si>
-  <si>
-    <t>99100 ~ Olietillæg</t>
+    <t xml:space="preserve">VARENR, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARENR, ANTAL, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
   </si>
 </sst>
 </file>
@@ -232,7 +249,7 @@
       <name val="Segoe UI"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,6 +419,35 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0967C8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006400"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E8B57"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -445,17 +491,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -518,6 +579,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" applyFill="1" borderId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="16" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="32" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="33" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="34" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="35" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="36" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="35" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -926,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:F4"/>
@@ -952,535 +1031,1623 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="K1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" ht="3.95" customHeight="1"/>
+    <row r="3" ht="33">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>1199714</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2">
+        <v>292.63</v>
+      </c>
+      <c r="J4" s="2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>1199714</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2">
+        <v>460</v>
+      </c>
+      <c r="J5" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>1199714</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2">
+        <v>794.25</v>
+      </c>
+      <c r="J6" s="2">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>1199714</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2">
+        <v>863.75</v>
+      </c>
+      <c r="J7" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>1199714</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="2">
+        <v>419.28</v>
+      </c>
+      <c r="J8" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>1199714</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2">
+        <v>882.5</v>
+      </c>
+      <c r="J9" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>1199714</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1348.13</v>
+      </c>
+      <c r="J10" s="2">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>1199714</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="2">
+        <v>835</v>
+      </c>
+      <c r="J11" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>1199714</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1195</v>
+      </c>
+      <c r="J12" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>1202688</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="2">
+        <v>419.28</v>
+      </c>
+      <c r="J13" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>1202688</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1749.92</v>
+      </c>
+      <c r="J14" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>1202688</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1295.22</v>
+      </c>
+      <c r="J15" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>1202688</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="2">
+        <v>55</v>
+      </c>
+      <c r="J16" s="2">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>1202688</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1122.5</v>
+      </c>
+      <c r="J17" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>1202688</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="2">
+        <v>111</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" hidden="1" ht="0" customHeight="1"/>
+    <row r="20" ht="20.45" customHeight="1"/>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="1.2374015748031499" header="0.78740157480314998" footer="0.78740157480314998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C&amp;"Segoe UI,Regular"&amp;10 2/1/2024 8:45:03 AM</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CA5DAF-4476-4672-8641-75453AF298C8}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="35" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" hidden="1" width="0" customWidth="1"/>
+    <col min="12" max="12" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.5" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="K1" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" ht="3.95" customHeight="1">
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" ht="33">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
+      <c r="C3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="20">
+        <v>1199714</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="26">
+        <v>292.63</v>
+      </c>
+      <c r="J4" s="26">
+        <v>12.5</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="20">
+        <v>1199714</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="20">
+        <v>460</v>
+      </c>
+      <c r="J5" s="20">
+        <v>25</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="20">
+        <v>1199714</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="26">
+        <v>794.25</v>
+      </c>
+      <c r="J6" s="26">
+        <v>37.5</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="20">
+        <v>1199714</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="26">
+        <v>863.75</v>
+      </c>
+      <c r="J7" s="20">
+        <v>25</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="20">
+        <v>1199714</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="26">
+        <v>419.28</v>
+      </c>
+      <c r="J8" s="20">
+        <v>24</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="20">
+        <v>1199714</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="26">
+        <v>882.5</v>
+      </c>
+      <c r="J9" s="20">
+        <v>25</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="20">
+        <v>1199714</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="26">
+        <v>1348.13</v>
+      </c>
+      <c r="J10" s="26">
+        <v>37.5</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="20">
+        <v>1199714</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="20">
+        <v>835</v>
+      </c>
+      <c r="J11" s="20">
+        <v>25</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="20">
+        <v>1199714</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="20">
+        <v>1195</v>
+      </c>
+      <c r="J12" s="20">
+        <v>100</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="20">
+        <v>1202688</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="26">
+        <v>419.28</v>
+      </c>
+      <c r="J13" s="20">
+        <v>24</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="20">
+        <v>1202688</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="26">
+        <v>1749.92</v>
+      </c>
+      <c r="J14" s="20">
+        <v>14</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="20">
+        <v>1202688</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="26">
+        <v>1295.22</v>
+      </c>
+      <c r="J15" s="20">
+        <v>9</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="20">
+        <v>1202688</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="20">
+        <v>55</v>
+      </c>
+      <c r="J16" s="26">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="20">
+        <v>1202688</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="26">
+        <v>1122.5</v>
+      </c>
+      <c r="J17" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="20">
+        <v>1202688</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="20">
+        <v>111</v>
+      </c>
+      <c r="J18" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" hidden="1" ht="0" customHeight="1"/>
+    <row r="20" ht="20.45" customHeight="1"/>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="1.2374015748031499" header="0.78740157480314998" footer="0.78740157480314998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C&amp;"Segoe UI,Regular"&amp;10 2/1/2024 8:45:03 AM</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A05517-72EB-46A4-BCB6-8EC9B727973F}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="35" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" hidden="1" width="0" customWidth="1"/>
+    <col min="12" max="12" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" ht="3.95" customHeight="1"/>
     <row r="3" ht="33">
-      <c r="A3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="44">
+        <v>1199714</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="15">
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2">
+        <v>292.63</v>
+      </c>
+      <c r="J4" s="45">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="44">
         <v>1199714</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="19" t="s">
+      <c r="E5" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="21">
-        <v>292.63</v>
-      </c>
-      <c r="J4" s="21">
-        <v>12.5</v>
-      </c>
-      <c r="K4" s="12" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2">
+        <v>460</v>
+      </c>
+      <c r="J5" s="45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="44">
+        <v>1199714</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="15">
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2">
+        <v>794.25</v>
+      </c>
+      <c r="J6" s="45">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="44">
         <v>1199714</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B7" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="15">
-        <v>460</v>
-      </c>
-      <c r="J5" s="15">
+      <c r="F7" s="8"/>
+      <c r="G7" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2">
+        <v>863.75</v>
+      </c>
+      <c r="J7" s="45">
         <v>25</v>
       </c>
-      <c r="K5" s="14" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="44">
+        <v>1199714</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="15">
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="2">
+        <v>419.28</v>
+      </c>
+      <c r="J8" s="45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
         <v>1199714</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2">
+        <v>882.5</v>
+      </c>
+      <c r="J9" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>1199714</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1348.13</v>
+      </c>
+      <c r="J10" s="2">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>1199714</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="2">
+        <v>835</v>
+      </c>
+      <c r="J11" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>1199714</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1195</v>
+      </c>
+      <c r="J12" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>1202688</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="21">
-        <v>794.25</v>
-      </c>
-      <c r="J6" s="21">
-        <v>37.5</v>
-      </c>
-      <c r="K6" s="16" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="2">
+        <v>419.28</v>
+      </c>
+      <c r="J13" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="15">
-        <v>1199714</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="15" t="s">
+    <row r="14">
+      <c r="A14" s="2">
+        <v>1202688</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1749.92</v>
+      </c>
+      <c r="J14" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>1202688</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1295.22</v>
+      </c>
+      <c r="J15" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>1202688</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="2">
+        <v>55</v>
+      </c>
+      <c r="J16" s="2">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>1202688</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1122.5</v>
+      </c>
+      <c r="J17" s="2">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="21">
-        <v>863.75</v>
-      </c>
-      <c r="J7" s="15">
-        <v>25</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="15">
-        <v>1199714</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="21">
-        <v>419.28</v>
-      </c>
-      <c r="J8" s="15">
-        <v>24</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="15">
-        <v>1199714</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="21">
-        <v>882.5</v>
-      </c>
-      <c r="J9" s="15">
-        <v>25</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15">
-        <v>1199714</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="21">
-        <v>1348.13</v>
-      </c>
-      <c r="J10" s="21">
-        <v>37.5</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="15">
-        <v>1199714</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="15">
-        <v>835</v>
-      </c>
-      <c r="J11" s="15">
-        <v>25</v>
-      </c>
-      <c r="K11" s="26" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>1202688</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="15">
-        <v>1199714</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="D18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="15">
-        <v>1195</v>
-      </c>
-      <c r="J12" s="15">
-        <v>100</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="15">
-        <v>1202688</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="21">
-        <v>419.28</v>
-      </c>
-      <c r="J13" s="15">
-        <v>24</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="15">
-        <v>1202688</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="21">
-        <v>1749.92</v>
-      </c>
-      <c r="J14" s="15">
-        <v>14</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="15">
-        <v>1202688</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="21">
-        <v>1295.22</v>
-      </c>
-      <c r="J15" s="15">
-        <v>9</v>
-      </c>
-      <c r="K15" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="15">
-        <v>1202688</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="15">
-        <v>55</v>
-      </c>
-      <c r="J16" s="21">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="15">
-        <v>1202688</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="21">
-        <v>1122.5</v>
-      </c>
-      <c r="J17" s="15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="15">
-        <v>1202688</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="15">
+      <c r="F18" s="8"/>
+      <c r="G18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="2">
         <v>111</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="2">
         <v>0</v>
       </c>
     </row>

--- a/out/CBP/Øko_konventionelt køb i kg Nordsjælands hospitaler januar 2024.xlsx
+++ b/out/CBP/Øko_konventionelt køb i kg Nordsjælands hospitaler januar 2024.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">Sygehus lillebælt   Periode 01-01-2024 - 31-01-2024</t>
   </si>
@@ -179,7 +179,7 @@
     <t>6% filler,31% containsProductNr,62% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>2% filler,21% containsSingleMass,21% containsProduct,10% containsProductNr,21% containsAmount,21% SingleMassHeader,</t>
@@ -188,16 +188,10 @@
     <t>1% filler,17% containsProduct,8% containsProductNr,17% containsAmount,17% SingleMassHeader,17% TotalMassHeader,17% QuantityHeader,</t>
   </si>
   <si>
-    <t>1% filler,17% containsTotalMass,17% containsSingleMass,8% containsProductNr,17% containsAmount,17% SingleMassHeader,17% TotalMassHeader,</t>
-  </si>
-  <si>
-    <t>2% filler,27% containsSingleMass,13% containsProductNr,27% containsAmount,27% SingleMassHeader,</t>
-  </si>
-  <si>
     <t>3% filler,38% containsProduct,19% containsProductNr,38% containsAmount,</t>
   </si>
   <si>
-    <t>3% filler,19% containsProductNr,38% containsAmount,38% QuantityHeader,</t>
+    <t>2% filler,27% containsProduct,13% containsProductNr,27% containsAmount,27% QuantityHeader,</t>
   </si>
   <si>
     <t xml:space="preserve">VARENR, </t>
@@ -212,7 +206,10 @@
     <t xml:space="preserve">VARENR, ANTAL, </t>
   </si>
   <si>
-    <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
+    <t xml:space="preserve">ANTAL, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTAL, STK. MASSE, TOTAL MASSE </t>
   </si>
 </sst>
 </file>
@@ -249,7 +246,7 @@
       <name val="Segoe UI"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,13 +343,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -379,28 +376,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA58BA3"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA58BA3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF947CC6"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF947CC6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF093666"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -412,13 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0967C8"/>
+        <fgColor rgb="FF066D90"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0967C8"/>
+        <fgColor rgb="FF066D90"/>
       </patternFill>
     </fill>
     <fill>
@@ -491,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
@@ -570,33 +545,22 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="28" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="30" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="16" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="32" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="28" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="33" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="29" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="34" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="30" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="35" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="31" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="36" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="32" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="35" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="31" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1548,7 +1512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CA5DAF-4476-4672-8641-75453AF298C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0102E4-32CD-4A42-AF32-8B21F701C057}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1799,7 +1763,7 @@
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="22" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="8"/>
@@ -1832,7 +1796,7 @@
       <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="28" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="8"/>
@@ -1865,7 +1829,7 @@
       <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="32" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="8"/>
@@ -1964,7 +1928,7 @@
       <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="34" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="8"/>
@@ -1980,9 +1944,6 @@
       <c r="J14" s="20">
         <v>14</v>
       </c>
-      <c r="K14" s="37" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="20">
@@ -1997,7 +1958,7 @@
       <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="34" t="s">
         <v>34</v>
       </c>
       <c r="F15" s="8"/>
@@ -2013,9 +1974,6 @@
       <c r="J15" s="20">
         <v>9</v>
       </c>
-      <c r="K15" s="39" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="20">
@@ -2030,7 +1988,7 @@
       <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="32" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="8"/>
@@ -2090,7 +2048,7 @@
       <c r="D18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="32" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="8"/>
@@ -2138,7 +2096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A05517-72EB-46A4-BCB6-8EC9B727973F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820E55AA-0956-4526-9801-A843709FF504}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -2172,482 +2130,482 @@
     </row>
     <row r="2" ht="3.95" customHeight="1"/>
     <row r="3" ht="33">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="43" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="43" t="s">
+      <c r="I3" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="43" t="s">
+      <c r="J3" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="44">
+      <c r="A4" s="39">
         <v>1199714</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="41" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="H4" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="39">
         <v>292.63</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="40">
         <v>12.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="44">
+      <c r="A5" s="39">
         <v>1199714</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="44" t="s">
+      <c r="B5" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="41" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="H5" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="39">
         <v>460</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="40">
         <v>25</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="44">
+      <c r="A6" s="39">
         <v>1199714</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="44" t="s">
+      <c r="B6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="41" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="H6" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="39">
         <v>794.25</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="40">
         <v>37.5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="44">
+      <c r="A7" s="39">
         <v>1199714</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="44" t="s">
+      <c r="B7" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="41" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="H7" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="39">
         <v>863.75</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="40">
         <v>25</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="44">
+      <c r="A8" s="39">
         <v>1199714</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="44" t="s">
+      <c r="B8" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="41" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="H8" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="39">
         <v>419.28</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="40">
         <v>24</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="39">
         <v>1199714</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="41" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="H9" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="39">
         <v>882.5</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="40">
         <v>25</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="39">
         <v>1199714</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="41" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="H10" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="39">
         <v>1348.13</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="40">
         <v>37.5</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="39">
         <v>1199714</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="39" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="41" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="H11" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="39">
         <v>835</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="40">
         <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="39">
         <v>1199714</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="39" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="41" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="H12" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="39">
         <v>1195</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="40">
         <v>100</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="39">
         <v>1202688</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="41" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="H13" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="39">
         <v>419.28</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="40">
         <v>24</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="39">
         <v>1202688</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="39" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="41" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="H14" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="39">
         <v>1749.92</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="40">
         <v>14</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="39">
         <v>1202688</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="39" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="41" t="s">
         <v>34</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="H15" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="39">
         <v>1295.22</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="40">
         <v>9</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="39">
         <v>1202688</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="41" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="H16" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="39">
         <v>55</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="40">
         <v>10.6</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="39">
         <v>1202688</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="39" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="41" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="H17" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="39">
         <v>1122.5</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="40">
         <v>25</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="39">
         <v>1202688</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="39" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="41" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="H18" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="39">
         <v>111</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="40">
         <v>0</v>
       </c>
     </row>
